--- a/assets/dataFiles/Out Station Duty (KM Basis).xlsx
+++ b/assets/dataFiles/Out Station Duty (KM Basis).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bongu\Documents\TourNest-master\assets\dataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49CFE53-4A1A-42B2-91B9-ED30243CEFBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152267C1-1210-4C70-BEFA-47EE059B8C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{80DA83D2-F692-46BE-8E4B-A8B4847A3A9A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{80DA83D2-F692-46BE-8E4B-A8B4847A3A9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -134,15 +134,17 @@
     <t>RS.18.00</t>
   </si>
   <si>
-    <t>MINIMUM CHARGES FOR 
-KM / ROUND TRIP</t>
-  </si>
-  <si>
     <t>Minimum charges for 
 Km per day</t>
   </si>
   <si>
     <t>Out Station Duty (KM Basis)</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Info&lt;/h5&gt;
+&lt;p&gt;MINIMUM CHARGES FOR KM / ROUND TRIP&lt;/p&gt;
+&lt;/div&gt;</t>
   </si>
 </sst>
 </file>
@@ -671,7 +673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DBE07AF-4091-4530-84C0-82C027FF4F73}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -679,12 +681,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -696,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98534EAB-D759-4909-949C-8E73ADF17512}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,7 +712,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -719,7 +721,7 @@
     </row>
     <row r="2" spans="1:5" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -731,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>1</v>

--- a/assets/dataFiles/Out Station Duty (KM Basis).xlsx
+++ b/assets/dataFiles/Out Station Duty (KM Basis).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bongu\Documents\TourNest-master\assets\dataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anjankumar.bnv\Documents\myproject\ootytaxi\assets\dataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152267C1-1210-4C70-BEFA-47EE059B8C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87CF911-C33E-4869-8554-E80390517A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{80DA83D2-F692-46BE-8E4B-A8B4847A3A9A}"/>
   </bookViews>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,74 +35,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="35">
   <si>
     <t>Cab Type</t>
   </si>
   <si>
-    <t>Price / kms</t>
-  </si>
-  <si>
     <t>BOOK</t>
   </si>
   <si>
-    <t>INDICA NON A/C</t>
-  </si>
-  <si>
-    <t>250 kms</t>
-  </si>
-  <si>
-    <t>RS.8.00</t>
-  </si>
-  <si>
-    <t>RS.250</t>
-  </si>
-  <si>
     <t>BOOK NOW! </t>
   </si>
   <si>
-    <t>INDICA</t>
-  </si>
-  <si>
-    <t>RS.8.50</t>
-  </si>
-  <si>
-    <t>INDIGO</t>
-  </si>
-  <si>
-    <t>RS.9.00</t>
-  </si>
-  <si>
     <t>MAHENDRA LOGAN</t>
   </si>
   <si>
     <t>TOYOTA EITOS</t>
   </si>
   <si>
-    <t>RS.10.00</t>
-  </si>
-  <si>
     <t>SWIFT DIZER</t>
   </si>
   <si>
     <t>TAVERA NON A/C</t>
   </si>
   <si>
-    <t>RS10.50</t>
-  </si>
-  <si>
     <t>TAVERA</t>
   </si>
   <si>
-    <t>RS.11.00</t>
-  </si>
-  <si>
     <t>XYLO</t>
   </si>
   <si>
-    <t>RS.11.50</t>
-  </si>
-  <si>
     <t>INNOVA</t>
   </si>
   <si>
@@ -113,29 +73,13 @@
     <t>TEMPO TRAVELLER NON A/C</t>
   </si>
   <si>
-    <t>350 kms</t>
-  </si>
-  <si>
     <t>RS.15.00</t>
   </si>
   <si>
-    <t>RS.300</t>
-  </si>
-  <si>
     <t>TEMPO TRAVELLER</t>
   </si>
   <si>
-    <t>RS.17.00</t>
-  </si>
-  <si>
     <t>MAXI CABS</t>
-  </si>
-  <si>
-    <t>RS.18.00</t>
-  </si>
-  <si>
-    <t>Minimum charges for 
-Km per day</t>
   </si>
   <si>
     <t>Out Station Duty (KM Basis)</t>
@@ -145,6 +89,60 @@
 &lt;h5&gt;Info&lt;/h5&gt;
 &lt;p&gt;MINIMUM CHARGES FOR KM / ROUND TRIP&lt;/p&gt;
 &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>INDGO</t>
+  </si>
+  <si>
+    <t>TATA ZEST</t>
+  </si>
+  <si>
+    <t>INNOVA CRYSTA</t>
+  </si>
+  <si>
+    <t>300 kms</t>
+  </si>
+  <si>
+    <t>RS.13.00</t>
+  </si>
+  <si>
+    <t>RS.15.50</t>
+  </si>
+  <si>
+    <t>RS.16.00</t>
+  </si>
+  <si>
+    <t>RS.19.00</t>
+  </si>
+  <si>
+    <t>RS.20.00</t>
+  </si>
+  <si>
+    <t>RS.21.00</t>
+  </si>
+  <si>
+    <t>Driver Batta</t>
+  </si>
+  <si>
+    <t>Fixed Charge</t>
+  </si>
+  <si>
+    <t>Minimum Kilometers/Day</t>
+  </si>
+  <si>
+    <t>Rs. 350/-</t>
+  </si>
+  <si>
+    <t>Rs. 450/-</t>
+  </si>
+  <si>
+    <t>Rs. 500/-</t>
+  </si>
+  <si>
+    <t>Rs. 24.00</t>
+  </si>
+  <si>
+    <t>Price/Km</t>
   </si>
 </sst>
 </file>
@@ -163,7 +161,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="20"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -184,7 +182,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -193,62 +191,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -259,103 +205,32 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -681,12 +556,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -696,280 +571,325 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98534EAB-D759-4909-949C-8E73ADF17512}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.42578125" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3750</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="5">
+        <v>3750</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="5">
+        <v>3900</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="5">
+        <v>3900</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="5">
+        <v>3900</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="5">
+        <v>4500</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="5">
+        <v>4650</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="5">
+        <v>4800</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="5">
+        <v>4800</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="5">
+        <v>5700</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="5">
+        <v>6300</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="5">
+        <v>7200</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-    </row>
-    <row r="2" spans="1:5" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" spans="1:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="E16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>7</v>
+      <c r="F16" s="6" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
